--- a/Document/美术表/美术工作清单.xlsx
+++ b/Document/美术表/美术工作清单.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +566,7 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="61.5" x14ac:dyDescent="0.7">

--- a/Document/美术表/美术工作清单.xlsx
+++ b/Document/美术表/美术工作清单.xlsx
@@ -10,12 +10,12 @@
     <sheet name="规格书" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>标题画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>估价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560x4544或1280x2272</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,15 +562,16 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="61.5" x14ac:dyDescent="0.7">
@@ -620,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>

--- a/Document/美术表/美术工作清单.xlsx
+++ b/Document/美术表/美术工作清单.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规格书" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="大地图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>标题画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,15 +181,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音乐外包规格书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>估价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2560x4544或1280x2272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11~20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26~40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~55</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>55~70</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>70~85</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚星空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用分辨率：640x4544</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,16 +310,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,17 +376,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -597,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -625,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>17</v>
@@ -822,222 +1000,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="61.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/美术表/美术工作清单.xlsx
+++ b/Document/美术表/美术工作清单.xlsx
@@ -407,9 +407,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,6 +429,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,96 +1012,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/美术表/美术工作清单.xlsx
+++ b/Document/美术表/美术工作清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="规格书" sheetId="1" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
